--- a/stig-mod-dredge-results.xlsx
+++ b/stig-mod-dredge-results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Claire\Documents\Masters3\masters-thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3015F5-E7B4-4B58-9C5E-D11B1262B5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88996B0B-4EAF-44EA-A384-422B35DE4FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A69E991E-B767-438F-82F9-566D917E2EA0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{A69E991E-B767-438F-82F9-566D917E2EA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="40">
   <si>
     <t>Species</t>
   </si>
@@ -115,12 +115,6 @@
     <t>Carex stipata</t>
   </si>
   <si>
-    <t>Inv_avg_dist</t>
-  </si>
-  <si>
-    <t>Infl_max</t>
-  </si>
-  <si>
     <t>Chenopodium album</t>
   </si>
   <si>
@@ -173,12 +167,25 @@
   </si>
   <si>
     <t>log(pollen) ~ date + density + stigma length*</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>&lt;0.001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="171" formatCode="0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -265,12 +272,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -296,9 +302,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -314,6 +317,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -628,11 +696,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{867FC0F9-8680-47F1-9518-D409197B7777}">
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14:B17"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -641,9 +709,13 @@
     <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.109375" customWidth="1"/>
     <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="6" width="8.88671875" style="36"/>
+    <col min="7" max="8" width="8.88671875" style="44"/>
+    <col min="9" max="9" width="8.88671875" style="42"/>
+    <col min="13" max="13" width="8.88671875" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -656,1322 +728,1496 @@
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="41" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="K1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="27">
         <v>622.5</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="31">
         <v>3.9546000000000001</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="31">
         <v>0.38350000000000001</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="38">
         <v>29.2791</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="38">
         <v>10.271000000000001</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="13">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="25"/>
+      <c r="B3" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="22">
         <v>623.70000000000005</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="32">
         <v>4.4909999999999997</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="32">
         <v>9.7860000000000003E-2</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="43">
         <v>25.740539999999999</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="43">
         <v>45.898000000000003</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="17"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="2"/>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="26"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="16"/>
       <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="30">
         <v>0.15024999999999999</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="30">
         <v>6.6259999999999999E-2</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="39">
         <v>217.07599999999999</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="39">
         <v>2.2679999999999998</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="50">
         <v>2.4299999999999999E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="K4" s="2">
+        <v>2.4299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="B5" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="14">
         <v>553.5</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="33">
         <v>1.94173</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="33">
         <v>0.10382</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="37">
         <v>20.18881</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="37">
         <v>18.702000000000002</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="6">
         <v>3.2000000000000002E-14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="8" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="25"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="31">
         <v>0.55308999999999997</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="31">
         <v>6.3560000000000005E-2</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="38">
         <v>185.88300000000001</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="38">
         <v>8.702</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="8">
         <v>1.7299999999999999E-15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="17"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="10" t="s">
+    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="26"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="30">
         <v>0.20416000000000001</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="30">
         <v>6.6210000000000005E-2</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="39">
         <v>195.96202</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="39">
         <v>3.0830000000000002</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="50">
         <v>2.3400000000000001E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="K7" s="2">
+        <v>2.3400000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="5">
+      <c r="B8" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="14">
         <v>703.4</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="34">
         <v>2.2399200000000001</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="33">
         <v>9.9610000000000004E-2</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="37">
         <v>22.61572</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="37">
         <v>22.486999999999998</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="17"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="2"/>
+    <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="26"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="35">
         <v>0.29076999999999997</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="30">
         <v>9.1200000000000003E-2</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="39">
         <v>197.88166000000001</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="39">
         <v>3.1880000000000002</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="50">
         <v>1.66E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
+      <c r="K9" s="2">
+        <v>1.66E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="5">
+      <c r="B10" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="14">
         <v>217.6</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="33">
         <v>1.9095200000000001</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="33">
         <v>0.17796999999999999</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="37">
         <v>11.73293</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="37">
         <v>10.73</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="6">
         <v>2.04E-7</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="17"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="2"/>
+    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="26"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="30">
         <v>0.77954000000000001</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="30">
         <v>9.3240000000000003E-2</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="39">
         <v>69.989739999999998</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="39">
         <v>8.36</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="11">
         <v>3.9700000000000002E-12</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="5">
+      <c r="B12" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="14">
         <v>260.5</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="33">
         <v>1.47296</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="33">
         <v>0.16100999999999999</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="37">
         <v>18.076989999999999</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="37">
         <v>9.1479999999999997</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" s="6">
         <v>3.33E-8</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="17"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="2"/>
+    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="26"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="30">
         <v>0.26733000000000001</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="30">
         <v>8.5989999999999997E-2</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="39">
         <v>86.821979999999996</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="39">
         <v>3.109</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="50">
         <v>2.5400000000000002E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
+      <c r="K13" s="11">
+        <v>2.5400000000000002E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="5">
+      <c r="B14" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="14">
         <v>902.4</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="33">
         <v>0.98492999999999997</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="33">
         <v>5.3330000000000002E-2</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="37">
         <v>316</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="37">
         <v>18.466999999999999</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="25"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="31">
         <v>0.24685000000000001</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="31">
         <v>5.4199999999999998E-2</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="38">
         <v>316</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="38">
         <v>4.5540000000000003</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="8">
         <v>7.52E-6</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="1"/>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="25"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="1">
+        <v>37</v>
+      </c>
+      <c r="E16" s="31">
         <v>0.15697</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="31">
         <v>5.348E-2</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="38">
         <v>316</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="38">
         <v>2.9350000000000001</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="48">
         <v>3.5799999999999998E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="1"/>
+      <c r="K16" s="8">
+        <v>3.5799999999999998E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="25"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="31">
         <v>0.26324999999999998</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="31">
         <v>5.423E-2</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="38">
         <v>316</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="38">
         <v>4.8540000000000001</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17" s="8">
         <v>1.9E-6</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="16"/>
-      <c r="B18" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="13">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="25"/>
+      <c r="B18" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="22">
         <v>903</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="32">
         <v>0.98492999999999997</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="32">
         <v>5.296E-2</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="43">
         <v>315</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="43">
         <v>18.597999999999999</v>
       </c>
-      <c r="I18" s="13" t="s">
+      <c r="I18" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="16"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="25"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="31">
         <v>0.2505</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="31">
         <v>5.3839999999999999E-2</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="38">
         <v>315</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="38">
         <v>4.6520000000000001</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" s="8">
         <v>4.8400000000000002E-6</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="16"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="1"/>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="25"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="1">
+        <v>38</v>
+      </c>
+      <c r="E20" s="31">
         <v>0.1285</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="31">
         <v>5.4820000000000001E-2</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="38">
         <v>315</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="38">
         <v>2.3439999999999999</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="48">
         <v>1.9699999999999999E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="16"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="1"/>
+      <c r="K20" s="8">
+        <v>1.9699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="25"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="1">
+        <v>37</v>
+      </c>
+      <c r="E21" s="31">
         <v>0.13583999999999999</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="31">
         <v>5.3870000000000001E-2</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="38">
         <v>315</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="38">
         <v>2.5219999999999998</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="48">
         <v>1.2200000000000001E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="16"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="1"/>
+      <c r="K21" s="8">
+        <v>1.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="25"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="23"/>
       <c r="D22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="31">
         <v>0.23743</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="31">
         <v>5.4960000000000002E-2</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="38">
         <v>315</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="38">
         <v>4.32</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22" s="8">
         <v>2.09E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="16"/>
-      <c r="B23" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="13">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="25"/>
+      <c r="B23" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="22">
         <v>903.2</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="32">
         <v>0.98492999999999997</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="32">
         <v>5.3409999999999999E-2</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="43">
         <v>316</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23" s="43">
         <v>18.442</v>
       </c>
-      <c r="I23" s="13" t="s">
+      <c r="I23" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="J23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="16"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="25"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="15"/>
       <c r="D24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="31">
         <v>0.24807000000000001</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="31">
         <v>5.4289999999999998E-2</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="38">
         <v>316</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="38">
         <v>4.569</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="K24" s="8">
         <v>7.0199999999999997E-6</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="16"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="1"/>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="25"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="15"/>
       <c r="D25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="1">
+        <v>38</v>
+      </c>
+      <c r="E25" s="31">
         <v>0.15164</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="31">
         <v>5.45E-2</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="38">
         <v>316</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="38">
         <v>2.782</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="45">
         <v>5.7200000000000003E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="17"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="2"/>
+      <c r="K25" s="8">
+        <v>5.7200000000000003E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="26"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="16"/>
       <c r="D26" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="30">
         <v>0.22758</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="30">
         <v>5.5289999999999999E-2</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="39">
         <v>316</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="39">
         <v>4.1159999999999997</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I26" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="K26" s="11">
         <v>4.9100000000000001E-5</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="5">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="14">
         <v>360.9</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="33">
         <v>1.0618700000000001</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="33">
         <v>6.3570000000000002E-2</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="37">
         <v>147</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="37">
         <v>16.7</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="I27" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="J27" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="17"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="2"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="26"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="16"/>
       <c r="D28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="30">
         <v>0.29912</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="30">
         <v>6.3780000000000003E-2</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="39">
         <v>147</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="39">
         <v>4.6900000000000004</v>
       </c>
-      <c r="I28" s="12">
+      <c r="I28" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="K28" s="11">
         <v>6.19E-6</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="5">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="14">
         <v>905.6</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="33">
         <v>3.6060599999999998</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="33">
         <v>0.11978</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="37">
         <v>27.447590000000002</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="37">
         <v>30.103999999999999</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="I29" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="K29" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="16"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="1"/>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="25"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="15"/>
       <c r="D30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="31">
         <v>0.51749000000000001</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="31">
         <v>7.3810000000000001E-2</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="38">
         <v>255.11949000000001</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="38">
         <v>7.0110000000000001</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="K30" s="8">
         <v>2.11E-11</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="17"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="2"/>
+    <row r="31" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="26"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="16"/>
       <c r="D31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="30">
         <v>0.38893</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="30">
         <v>8.2049999999999998E-2</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="39">
         <v>257.13031999999998</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="39">
         <v>4.74</v>
       </c>
-      <c r="I31" s="12">
+      <c r="I31" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="K31" s="11">
         <v>3.5300000000000001E-6</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="5">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="14">
         <v>488.1</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="33">
         <v>0.91198999999999997</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="33">
         <v>6.3689999999999997E-2</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="37">
         <v>27.980319999999999</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" s="37">
         <v>14.32</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="K32" s="6">
         <v>2.0999999999999999E-14</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="16"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="1"/>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="25"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="15"/>
       <c r="D33" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="31">
         <v>0.33734999999999998</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="31">
         <v>3.9620000000000002E-2</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="38">
         <v>245.10033000000001</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33" s="38">
         <v>8.5150000000000006</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I33" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="K33" s="8">
         <v>1.69E-15</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="16"/>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="25"/>
       <c r="B34" s="20"/>
-      <c r="C34" s="1"/>
+      <c r="C34" s="23"/>
       <c r="D34" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="31">
         <v>0.11489000000000001</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="31">
         <v>3.7609999999999998E-2</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="38">
         <v>256.16644000000002</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="38">
         <v>3.0550000000000002</v>
       </c>
-      <c r="I34" s="9">
+      <c r="I34" s="47">
         <v>2.49E-3</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="16"/>
-      <c r="B35" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="13">
+      <c r="K34" s="8">
+        <v>2.49E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="25"/>
+      <c r="B35" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="22">
         <v>489.3</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="32">
         <v>0.90332999999999997</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F35" s="32">
         <v>5.9139999999999998E-2</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G35" s="43">
         <v>26.368600000000001</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H35" s="43">
         <v>15.273999999999999</v>
       </c>
-      <c r="I35" s="14">
+      <c r="I35" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="K35" s="13">
         <v>1.3E-14</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="16"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="1"/>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="25"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="15"/>
       <c r="D36" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="31">
         <v>0.31730999999999998</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="31">
         <v>3.9750000000000001E-2</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G36" s="38">
         <v>242.85489000000001</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36" s="38">
         <v>7.9829999999999997</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I36" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="K36" s="8">
         <v>5.6900000000000002E-14</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="16"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="1"/>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="25"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="15"/>
       <c r="D37" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E37" s="1">
+        <v>37</v>
+      </c>
+      <c r="E37" s="31">
         <v>0.12463</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="31">
         <v>5.4890000000000001E-2</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G37" s="38">
         <v>38.237400000000001</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H37" s="38">
         <v>2.2709999999999999</v>
       </c>
-      <c r="I37" s="9">
+      <c r="I37" s="45">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="K37" s="8">
         <v>2.8879999999999999E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="17"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="2"/>
+    <row r="38" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="26"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="16"/>
       <c r="D38" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="30">
         <v>0.12823000000000001</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="30">
         <v>3.7900000000000003E-2</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38" s="39">
         <v>253.98952</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H38" s="39">
         <v>3.383</v>
       </c>
-      <c r="I38" s="12">
+      <c r="I38" s="46">
         <v>8.3000000000000001E-4</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39" s="5">
+      <c r="K38" s="11">
+        <v>8.3000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="14">
         <v>495.6</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="33">
         <v>1.4715400000000001</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39" s="33">
         <v>9.8239999999999994E-2</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="37">
         <v>22.233879999999999</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H39" s="37">
         <v>14.978</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I39" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="K39" s="6">
         <v>4.2200000000000002E-13</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="16"/>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="25"/>
       <c r="B40" s="20"/>
-      <c r="C40" s="1"/>
+      <c r="C40" s="23"/>
       <c r="D40" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="31">
         <v>0.31809999999999999</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="31">
         <v>7.1470000000000006E-2</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G40" s="38">
         <v>176.87365</v>
       </c>
-      <c r="H40" s="1">
+      <c r="H40" s="38">
         <v>4.4509999999999996</v>
       </c>
-      <c r="I40" s="9">
+      <c r="I40" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="K40" s="8">
         <v>1.5099999999999999E-5</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="16"/>
-      <c r="B41" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C41" s="13">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="25"/>
+      <c r="B41" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="22">
         <v>496.9</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E41" s="32">
         <v>1.4827999999999999</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F41" s="32">
         <v>0.10378</v>
       </c>
-      <c r="G41" s="13">
+      <c r="G41" s="43">
         <v>21.650300000000001</v>
       </c>
-      <c r="H41" s="13">
+      <c r="H41" s="43">
         <v>14.288</v>
       </c>
-      <c r="I41" s="14">
+      <c r="I41" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="K41" s="13">
         <v>1.6799999999999999E-12</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="16"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="1"/>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="25"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="15"/>
       <c r="D42" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="31">
         <v>0.14981</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="31">
         <v>7.0760000000000003E-2</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G42" s="38">
         <v>175.85221000000001</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H42" s="38">
         <v>2.117</v>
       </c>
-      <c r="I42" s="9">
+      <c r="I42" s="45">
         <v>3.5700000000000003E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="17"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="2"/>
+      <c r="K42" s="8">
+        <v>3.5700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="26"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="16"/>
       <c r="D43" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="30">
         <v>0.30099999999999999</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="30">
         <v>7.1080000000000004E-2</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43" s="39">
         <v>175.05799999999999</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H43" s="39">
         <v>4.2359999999999998</v>
       </c>
-      <c r="I43" s="12">
+      <c r="I43" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="K43" s="11">
         <v>3.68E-5</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B44" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C44" s="5">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="14">
         <v>907.2</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="33">
         <v>3.6276700000000002</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F44" s="33">
         <v>0.11995</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G44" s="37">
         <v>29.385100000000001</v>
       </c>
-      <c r="H44" s="5">
+      <c r="H44" s="37">
         <v>30.244</v>
       </c>
-      <c r="I44" s="5" t="s">
+      <c r="I44" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="K44" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="17"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="2"/>
+    <row r="45" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="26"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="16"/>
       <c r="D45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="30">
         <v>-0.45845999999999998</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="30">
         <v>9.3090000000000006E-2</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45" s="39">
         <v>223.65004999999999</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H45" s="39">
         <v>-4.9249999999999998</v>
       </c>
-      <c r="I45" s="12">
+      <c r="I45" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="K45" s="11">
         <v>1.64E-6</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B46" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C46" s="5">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" s="14">
         <v>643.29999999999995</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="33">
         <v>1.4259599999999999</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F46" s="33">
         <v>6.4649999999999999E-2</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G46" s="37">
         <v>23.912790000000001</v>
       </c>
-      <c r="H46" s="5">
+      <c r="H46" s="37">
         <v>22.05</v>
       </c>
-      <c r="I46" s="5" t="s">
+      <c r="I46" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="J46" t="s">
+        <v>20</v>
+      </c>
+      <c r="K46" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J46" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="17"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="2"/>
+    </row>
+    <row r="47" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="26"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="16"/>
       <c r="D47" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="30">
         <v>0.51071999999999995</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="30">
         <v>4.6629999999999998E-2</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G47" s="39">
         <v>244.71519000000001</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H47" s="39">
         <v>10.95</v>
       </c>
-      <c r="I47" s="2" t="s">
+      <c r="I47" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="K47" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B48" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C48" s="5">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="14">
         <v>248.6</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48" s="33">
         <v>1.9832000000000001</v>
       </c>
-      <c r="F48" s="5">
+      <c r="F48" s="33">
         <v>8.2489999999999994E-2</v>
       </c>
-      <c r="G48" s="5">
+      <c r="G48" s="37">
         <v>17.605889999999999</v>
       </c>
-      <c r="H48" s="5">
+      <c r="H48" s="37">
         <v>24.041</v>
       </c>
-      <c r="I48" s="7">
+      <c r="I48" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="K48" s="6">
         <v>6.5600000000000001E-15</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="16"/>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="25"/>
       <c r="B49" s="20"/>
-      <c r="C49" s="1"/>
+      <c r="C49" s="23"/>
       <c r="D49" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49" s="31">
         <v>0.29149000000000003</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49" s="31">
         <v>6.5720000000000001E-2</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G49" s="38">
         <v>97.205399999999997</v>
       </c>
-      <c r="H49" s="1">
+      <c r="H49" s="38">
         <v>4.4359999999999999</v>
       </c>
-      <c r="I49" s="9">
+      <c r="I49" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="K49" s="8">
         <v>2.4199999999999999E-5</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="16"/>
-      <c r="B50" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C50" s="13">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="25"/>
+      <c r="B50" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" s="22">
         <v>249.6</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D50" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E50" s="32">
         <v>1.9898</v>
       </c>
-      <c r="F50" s="13">
+      <c r="F50" s="32">
         <v>9.9820000000000006E-2</v>
       </c>
-      <c r="G50" s="13">
+      <c r="G50" s="43">
         <v>13.673999999999999</v>
       </c>
-      <c r="H50" s="13">
+      <c r="H50" s="43">
         <v>19.934999999999999</v>
       </c>
-      <c r="I50" s="14">
+      <c r="I50" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="K50" s="13">
         <v>1.6900000000000001E-11</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="16"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="1"/>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="25"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="15"/>
       <c r="D51" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" s="31">
         <v>0.28721999999999998</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51" s="31">
         <v>6.2570000000000001E-2</v>
       </c>
-      <c r="G51" s="1">
+      <c r="G51" s="38">
         <v>89.135549999999995</v>
       </c>
-      <c r="H51" s="1">
+      <c r="H51" s="38">
         <v>4.5910000000000002</v>
       </c>
-      <c r="I51" s="9">
+      <c r="I51" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="K51" s="8">
         <v>1.4399999999999999E-5</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="17"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="2"/>
+    <row r="52" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="26"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="16"/>
       <c r="D52" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="30">
         <v>0.18548000000000001</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52" s="30">
         <v>7.3789999999999994E-2</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G52" s="39">
         <v>95.031559999999999</v>
       </c>
-      <c r="H52" s="2">
+      <c r="H52" s="39">
         <v>2.5139999999999998</v>
       </c>
-      <c r="I52" s="12">
+      <c r="I52" s="46">
         <v>1.3599999999999999E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K52" s="11">
+        <v>1.3599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="49">
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="C39:C40"/>
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="B48:B49"/>
     <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C18:C22"/>
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="B35:B38"/>
